--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1241484.238391054</v>
+        <v>-1244040.554218304</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.6372159046676</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>298.2207317525902</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.46016866106959</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>183.4375581324469</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>234.8865272280662</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7944255145761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1032,7 +1032,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494236</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>109.6818210815091</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>118.8376584678369</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>213.0175435007612</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>209.318654952236</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>88.63059333846277</v>
       </c>
       <c r="T10" t="n">
-        <v>20.95866062610972</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>113.7076464771391</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>212.89882061057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="G16" t="n">
-        <v>132.7328787290186</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>201.7490817309711</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>30.65104903283332</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>46.86766651429448</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261735</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652662</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1148.130683918831</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C2" t="n">
-        <v>779.1681669784198</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D2" t="n">
-        <v>779.1681669784198</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1681669784198</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
         <v>779.1681669784198</v>
@@ -4322,58 +4322,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>735.5965430581376</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8299276276637</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8299276276637</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>259.1454394217768</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>259.1454394217768</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>259.1454394217768</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>259.1454394217768</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1100.545392232223</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>714.757139633979</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>303.7712348443715</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520487</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520487</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,25 +4659,25 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.3151575124868</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124868</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
         <v>361.3151575124868</v>
@@ -4723,52 +4723,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W7" t="n">
-        <v>810.0972875540343</v>
+        <v>631.4698357812235</v>
       </c>
       <c r="X7" t="n">
-        <v>582.107736656017</v>
+        <v>631.4698357812235</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.3151575124868</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C8" t="n">
-        <v>1127.748203495404</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D8" t="n">
-        <v>1127.748203495404</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>741.9599508971601</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>330.9740461075525</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>319.9419999929531</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>831.3611539611518</v>
       </c>
       <c r="T10" t="n">
-        <v>899.7166415493873</v>
+        <v>831.3611539611518</v>
       </c>
       <c r="U10" t="n">
-        <v>610.6137746750309</v>
+        <v>831.3611539611518</v>
       </c>
       <c r="V10" t="n">
-        <v>355.929286469144</v>
+        <v>831.3611539611518</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218343</v>
+        <v>541.9439839241911</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>313.9544330261738</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2332.106875017495</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2112.505410040436</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1823.430183384634</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459568</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180499</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>599.6019060180499</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>451.6888124356568</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>451.6888124356568</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854705</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817744</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919727</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761965</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6175,7 +6175,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,10 +6598,10 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
         <v>484.8112968429803</v>
@@ -6680,22 +6680,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942654</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384016</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,31 +7807,31 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.0966257588129</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>51.02023696482286</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.3718115208677</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>38.68254321812547</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,13 +22756,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="5">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>67.31863952450544</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>37.12601365260414</v>
       </c>
       <c r="G16" t="n">
-        <v>32.79125956325021</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048895</v>
+        <v>152326.9268048896</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194639</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="E2" t="n">
         <v>181607.9849302514</v>
@@ -26326,19 +26326,19 @@
         <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="J2" t="n">
         <v>181607.9849302514</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26347,7 +26347,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194636</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691494</v>
+        <v>11387.33216691495</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405263</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186737</v>
@@ -26445,16 +26445,16 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496086</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="N4" t="n">
+        <v>22817.55530496085</v>
+      </c>
+      <c r="O4" t="n">
         <v>22817.55530496082</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22817.55530496083</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496083</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1295739.091651011</v>
+        <v>-1296099.174666729</v>
       </c>
       <c r="C6" t="n">
-        <v>-16796.28644598194</v>
+        <v>-16796.28644598162</v>
       </c>
       <c r="D6" t="n">
-        <v>-16796.28644598203</v>
+        <v>-16796.28644598238</v>
       </c>
       <c r="E6" t="n">
-        <v>-259753.7027428782</v>
+        <v>-259788.4406683143</v>
       </c>
       <c r="F6" t="n">
-        <v>65658.75906447684</v>
+        <v>65624.02113904122</v>
       </c>
       <c r="G6" t="n">
-        <v>65658.75906447689</v>
+        <v>65624.02113904132</v>
       </c>
       <c r="H6" t="n">
-        <v>65658.75906447692</v>
+        <v>65624.02113904117</v>
       </c>
       <c r="I6" t="n">
-        <v>65658.75906447695</v>
+        <v>65624.02113904117</v>
       </c>
       <c r="J6" t="n">
-        <v>-151872.4433328006</v>
+        <v>-151907.1812582362</v>
       </c>
       <c r="K6" t="n">
-        <v>65658.75906447689</v>
+        <v>65624.02113904117</v>
       </c>
       <c r="L6" t="n">
-        <v>39325.00906695556</v>
+        <v>39325.00906695554</v>
       </c>
       <c r="M6" t="n">
-        <v>-26302.30087492439</v>
+        <v>-26302.30087492458</v>
       </c>
       <c r="N6" t="n">
+        <v>58752.72706058738</v>
+      </c>
+      <c r="O6" t="n">
         <v>58752.72706058747</v>
       </c>
-      <c r="O6" t="n">
-        <v>58752.72706058738</v>
-      </c>
       <c r="P6" t="n">
-        <v>58752.72706058738</v>
+        <v>58752.72706058744</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>57.66987719171262</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>6.331467198995</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>176.0351984253873</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>111.4435131414775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.620037437533028e-12</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>176.841177255082</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>99.74699488425787</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>141.6654981199217</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>85.28910943508447</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>101.1384319929791</v>
       </c>
       <c r="T10" t="n">
-        <v>198.5902886500595</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>324.9782573297443</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553853</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
